--- a/data/trans_media/IQ3005_MoAR-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ3005_MoAR-Estudios-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,83</t>
+          <t>9,59; 12,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,91</t>
+          <t>11,19; 15,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 12,0</t>
+          <t>10,2; 12,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,14; 11,54</t>
+          <t>10,09; 11,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 12,23</t>
+          <t>10,22; 12,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 13,17</t>
+          <t>10,92; 13,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,23</t>
+          <t>8,74; 14,81</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,01; 11,55</t>
+          <t>10,1; 11,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 11,74</t>
+          <t>10,6; 11,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 10,16</t>
+          <t>8,61; 10,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 12,95</t>
+          <t>11,13; 12,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,46; 11,62</t>
+          <t>10,5; 11,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 10,15</t>
+          <t>8,86; 10,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 11,95</t>
+          <t>10,78; 12,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 11,51</t>
+          <t>10,67; 11,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,88; 9,95</t>
+          <t>8,93; 9,96</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 13,26</t>
+          <t>11,33; 13,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,83; 11,31</t>
+          <t>9,84; 11,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 10,58</t>
+          <t>7,99; 10,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 10,93</t>
+          <t>7,92; 10,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 14,57</t>
+          <t>10,75; 14,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 11,01</t>
+          <t>8,72; 11,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 11,88</t>
+          <t>10,09; 11,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 12,89</t>
+          <t>10,55; 12,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 10,41</t>
+          <t>8,67; 10,36</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,71; 11,79</t>
+          <t>10,74; 11,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 11,61</t>
+          <t>10,65; 11,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 10,01</t>
+          <t>8,71; 10,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,46; 11,89</t>
+          <t>10,46; 11,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,8; 12,09</t>
+          <t>10,79; 12,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 10,34</t>
+          <t>9,15; 10,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,8; 11,73</t>
+          <t>10,76; 11,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,9; 11,72</t>
+          <t>10,89; 11,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 10,04</t>
+          <t>9,06; 10,01</t>
         </is>
       </c>
     </row>
